--- a/0605.xlsx
+++ b/0605.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Map/HVI_Johannesburg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB17C4B-6C7A-40FE-B1FC-A1E4D9EB8CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3CB17C4B-6C7A-40FE-B1FC-A1E4D9EB8CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE38DB0-5860-4183-8CA4-B398AB09A450}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42BE28EE-0A35-4F58-9836-FAEFA7CC688B}"/>
   </bookViews>
@@ -44,448 +44,448 @@
     <t xml:space="preserve"> HVI score</t>
   </si>
   <si>
-    <t xml:space="preserve"> "ZA7980009"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.40749}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980012"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.30591}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980000"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.25002}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980003"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.11914}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.01095}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980013"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.83624}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.63580}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980001"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.60827}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980002"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.32424}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.28323}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980011"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.08489}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980004"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.91869}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.79746}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.79229}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980007"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.73131}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.55280}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.42766}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.31906}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.31845}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.31243}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.29126}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.11313}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.95517}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.93147}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.90366}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.81140}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980010"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.78311}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.72461}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.70732}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.67967}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.58190}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.44269}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.43944}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980005"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.38058}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.34552}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980006"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.34537}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.33375}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.32232}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.32201}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.25388}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.09598}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.09049}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.06362}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.83907}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.51146}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.50561}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.43670}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.39700}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "ZA7980008"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.38315}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.19630}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.18202}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.05458}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.04003}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.98550}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.92669}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.82448}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.74418}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.69092}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.62964}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.62432}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.57431}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.55448}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.50116}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.41536}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.41489}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.38987}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.38695}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.33192}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.32302}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.27755}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.07147}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.17037}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.29619}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.32795}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.43134}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.56004}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.60850}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.70110}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.80761}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.93944}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.96642}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.65436}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.81314}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.98111}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.98282}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.17334}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.23497}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.24206}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.37245}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.39960}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.40627}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.52720}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.73491}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.73809}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.92772}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.09068}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.15998}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.22646}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.36471}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.38666}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.41908}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.44544}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.58702}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.59799}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.76959}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.87069}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.08320}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.58825}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.70872}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.83834}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.86926}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.94663}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.25216}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.26120}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.44807}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.52836}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.53934}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.55216}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.68822}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.76509}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.87387}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.94157}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.00422}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.15652}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.38797}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.42621}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.69868}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.85162}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.41104}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7.67138}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.16845}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.98550}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.41489}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.38987}</t>
+    <t xml:space="preserve">  ZA7980009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZA7980008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.40749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.30591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.25002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.11914 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.01095 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.83624 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.63580 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.60827 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.32424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.28323 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.08489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.91869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.79746 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.79229 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.73131 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.55280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.42766 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.31906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.31845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.31243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.29126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.11313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.95517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.93147 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.90366 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.81140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.78311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.72461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.70732 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.67967 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.58190 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.44269 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.43944 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.38058 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.34552 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.34537 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.33375 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.32232 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.32201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.25388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.09598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.09049 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.06362 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.83907 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.51146 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50561 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.43670 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.39700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.38315 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.19630 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.18202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.05458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.04003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.98550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.92669 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.82448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.74418 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.69092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.62964 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.62432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.57431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.41489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38695 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.33192 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.32302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27755 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07147 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.17037 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.29619 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.32795 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.43134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.56004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.60850 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.70110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.80761 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.93944 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.96642 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.65436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.81314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.98111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.98282 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.17334 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.23497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.24206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.37245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.39960 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.40627 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.52720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.73491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.73809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.92772 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.09068 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.15998 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.22646 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.36471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.38666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.41908 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.44544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.58702 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.59799 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.76959 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.87069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.08320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.58825 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.70872 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.83834 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.86926 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.94663 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.25216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.26120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.44807 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.52836 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.53934 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.55216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.68822 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.76509 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.87387 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.94157 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.00422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.15652 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.38797 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.42621 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.69868 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.85162 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7.41104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7.67138 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.16845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.98550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.41489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.38987 </t>
   </si>
 </sst>
 </file>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880A476A-6760-4792-BBD4-32828AC85D22}">
   <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,388 +882,388 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>85</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>105</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>121</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
         <v>124</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
         <v>132</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
         <v>139</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
         <v>140</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>145</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
         <v>146</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
         <v>147</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
         <v>149</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
         <v>87</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
         <v>88</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
         <v>89</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
         <v>90</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>91</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
         <v>92</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
         <v>93</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
         <v>95</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
         <v>96</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
         <v>97</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
         <v>98</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
         <v>99</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
         <v>100</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
         <v>101</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
         <v>102</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
         <v>103</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
         <v>104</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
         <v>105</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>107</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>108</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>109</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>110</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>111</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>112</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>113</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>114</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
         <v>115</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
         <v>116</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>117</v>
